--- a/results/mp/logistic/corona/confidence/126/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,25 +40,28 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>warning</t>
   </si>
   <si>
     <t>die</t>
@@ -67,54 +70,42 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>pressure</t>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sick</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>cut</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -127,193 +118,181 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>god</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>like</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>stock</t>
+    <t>get</t>
   </si>
   <si>
     <t>shopping</t>
@@ -322,13 +301,7 @@
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
 </sst>
 </file>
@@ -686,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -755,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7631578947368421</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -773,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.95</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -797,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -805,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7586206896551724</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -826,16 +799,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -847,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -855,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7568493150684932</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -873,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -897,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -926,16 +899,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -947,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -955,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5769230769230769</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -973,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.8537859007832899</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>327</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -997,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1005,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5666666666666667</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1023,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.8484848484848485</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1047,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1055,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5588235294117647</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1073,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1097,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1105,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5405405405405406</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1123,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8421052631578947</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L10">
+        <v>96</v>
+      </c>
+      <c r="M10">
+        <v>96</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>16</v>
-      </c>
-      <c r="M10">
-        <v>16</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1155,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5277777777777778</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -1173,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1197,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1205,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1223,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1247,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1255,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4814814814814815</v>
+        <v>0.4867724867724867</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1273,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8207547169811321</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L13">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1297,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1305,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4705882352941176</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1323,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1347,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1355,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.46875</v>
+        <v>0.4496124031007752</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1373,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.80625</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L15">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="M15">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1397,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1405,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4406779661016949</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1423,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.8048780487804879</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L16">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1447,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1455,13 +1428,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4338624338624338</v>
+        <v>0.375</v>
       </c>
       <c r="C17">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1473,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.7931034482758621</v>
+        <v>0.8046875</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1497,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1505,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4321705426356589</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C18">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1523,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.7887323943661971</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L18">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M18">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1547,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1555,13 +1528,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.375</v>
+        <v>0.3154362416107382</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1573,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.7727272727272727</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1597,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1605,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.36</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1623,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.7578125</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L20">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1647,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1655,13 +1628,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3090909090909091</v>
+        <v>0.28</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1673,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.7368421052631579</v>
+        <v>0.7875</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1697,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1705,37 +1678,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2751677852348993</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>41</v>
       </c>
-      <c r="D22">
-        <v>41</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>108</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.7291666666666666</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1747,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1755,13 +1728,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.175</v>
+        <v>0.123015873015873</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1773,19 +1746,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.7272727272727273</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1797,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1805,37 +1778,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1633466135458167</v>
+        <v>0.08042895442359249</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E24">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>210</v>
+        <v>343</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.7209302325581395</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1847,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1855,37 +1828,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1444444444444444</v>
+        <v>0.01908767389194435</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>77</v>
+        <v>3032</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.7142857142857143</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1897,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1905,37 +1878,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1048387096774194</v>
+        <v>0.01461574728901462</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>0.03</v>
+        <v>0.42</v>
       </c>
       <c r="F26">
-        <v>0.97</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>333</v>
+        <v>2090</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1947,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1955,187 +1928,115 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04333333333333333</v>
+        <v>0.007341206511330993</v>
       </c>
       <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>91</v>
+      </c>
+      <c r="E27">
+        <v>0.75</v>
+      </c>
+      <c r="F27">
+        <v>0.25</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3110</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.7</v>
+      </c>
+      <c r="L27">
+        <v>35</v>
+      </c>
+      <c r="M27">
+        <v>35</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L28">
         <v>13</v>
       </c>
-      <c r="D27">
+      <c r="M28">
         <v>13</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>287</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L29">
+        <v>43</v>
+      </c>
+      <c r="M29">
+        <v>43</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K27">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L27">
-        <v>19</v>
-      </c>
-      <c r="M27">
-        <v>19</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.01844063409899709</v>
-      </c>
-      <c r="C28">
-        <v>57</v>
-      </c>
-      <c r="D28">
-        <v>73</v>
-      </c>
-      <c r="E28">
-        <v>0.22</v>
-      </c>
-      <c r="F28">
-        <v>0.78</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>3034</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28">
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="L28">
-        <v>33</v>
-      </c>
-      <c r="M28">
-        <v>33</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.01187084520417854</v>
-      </c>
-      <c r="C29">
-        <v>25</v>
-      </c>
-      <c r="D29">
-        <v>62</v>
-      </c>
-      <c r="E29">
-        <v>0.6</v>
-      </c>
-      <c r="F29">
-        <v>0.4</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2081</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="L29">
-        <v>25</v>
-      </c>
-      <c r="M29">
-        <v>25</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.008261836669844296</v>
-      </c>
-      <c r="C30">
-        <v>26</v>
-      </c>
-      <c r="D30">
-        <v>80</v>
-      </c>
-      <c r="E30">
-        <v>0.68</v>
-      </c>
-      <c r="F30">
-        <v>0.32</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>3121</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K30">
-        <v>0.6785714285714286</v>
+        <v>0.675</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2147,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.65</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2178,16 +2079,16 @@
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.6461538461538462</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2199,15 +2100,15 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33">
         <v>18</v>
@@ -2225,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.6382978723404256</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L34">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="M34">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2251,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>34</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.638235294117647</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L35">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2277,21 +2178,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.6305084745762712</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L36">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="M36">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2303,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>109</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.625</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2329,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.62</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2355,21 +2256,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.6067796610169491</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2381,21 +2282,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>0.5815899581589958</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L40">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2407,21 +2308,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.5730337078651685</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L41">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2433,21 +2334,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>0.5714285714285714</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2459,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>0.5714285714285714</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2485,21 +2386,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0.5652173913043478</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2511,15 +2412,15 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>0.5555555555555556</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L45">
         <v>15</v>
@@ -2537,21 +2438,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K46">
-        <v>0.5454545454545454</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2563,21 +2464,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K47">
-        <v>0.5</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2589,21 +2490,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K48">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2615,47 +2516,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.45</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N49">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K50">
-        <v>0.4313725490196079</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2667,21 +2568,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.4222222222222222</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2693,21 +2594,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K52">
-        <v>0.3974358974358974</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2719,21 +2620,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.3823529411764706</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2745,21 +2646,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>0.3698630136986301</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2771,21 +2672,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K55">
-        <v>0.34375</v>
+        <v>0.265625</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2797,21 +2698,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K56">
-        <v>0.2982456140350877</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2823,21 +2724,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K57">
-        <v>0.288135593220339</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2849,21 +2750,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K58">
-        <v>0.2638888888888889</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2875,67 +2776,67 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K59">
-        <v>0.1296296296296296</v>
+        <v>0.08143322475570032</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>94</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K60">
-        <v>0.08641975308641975</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L60">
         <v>14</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N60">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>148</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K61">
-        <v>0.07878787878787878</v>
+        <v>0.04248366013071896</v>
       </c>
       <c r="L61">
         <v>13</v>
@@ -2953,15 +2854,15 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>152</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K62">
-        <v>0.07027027027027027</v>
+        <v>0.03125</v>
       </c>
       <c r="L62">
         <v>13</v>
@@ -2979,293 +2880,137 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>172</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K63">
-        <v>0.05194805194805195</v>
+        <v>0.02561247216035635</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>292</v>
+        <v>875</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="K64">
-        <v>0.04513888888888889</v>
+        <v>0.02139710509754563</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="N64">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="O64">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>275</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K65">
-        <v>0.03987730061349693</v>
+        <v>0.0145413870246085</v>
       </c>
       <c r="L65">
         <v>13</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N65">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>313</v>
+        <v>881</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="K66">
-        <v>0.03365384615384615</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="L66">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>402</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="K67">
-        <v>0.02447163515016685</v>
+        <v>0.005249343832020997</v>
       </c>
       <c r="L67">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="N67">
-        <v>0.92</v>
+        <v>0.21</v>
       </c>
       <c r="O67">
-        <v>0.07999999999999996</v>
+        <v>0.79</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K68">
-        <v>0.021671826625387</v>
-      </c>
-      <c r="L68">
-        <v>14</v>
-      </c>
-      <c r="M68">
-        <v>18</v>
-      </c>
-      <c r="N68">
-        <v>0.78</v>
-      </c>
-      <c r="O68">
-        <v>0.22</v>
-      </c>
-      <c r="P68" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K69">
-        <v>0.02127659574468085</v>
-      </c>
-      <c r="L69">
-        <v>19</v>
-      </c>
-      <c r="M69">
-        <v>20</v>
-      </c>
-      <c r="N69">
-        <v>0.95</v>
-      </c>
-      <c r="O69">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K70">
-        <v>0.01746931067044381</v>
-      </c>
-      <c r="L70">
-        <v>37</v>
-      </c>
-      <c r="M70">
-        <v>62</v>
-      </c>
-      <c r="N70">
-        <v>0.6</v>
-      </c>
-      <c r="O70">
-        <v>0.4</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K71">
-        <v>0.01700787401574803</v>
-      </c>
-      <c r="L71">
-        <v>54</v>
-      </c>
-      <c r="M71">
-        <v>80</v>
-      </c>
-      <c r="N71">
-        <v>0.68</v>
-      </c>
-      <c r="O71">
-        <v>0.32</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>3121</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K72">
-        <v>0.01453790238836968</v>
-      </c>
-      <c r="L72">
-        <v>14</v>
-      </c>
-      <c r="M72">
-        <v>19</v>
-      </c>
-      <c r="N72">
-        <v>0.74</v>
-      </c>
-      <c r="O72">
-        <v>0.26</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="73" spans="10:17">
-      <c r="J73" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K73">
-        <v>0.005245901639344262</v>
-      </c>
-      <c r="L73">
-        <v>16</v>
-      </c>
-      <c r="M73">
-        <v>73</v>
-      </c>
-      <c r="N73">
-        <v>0.22</v>
-      </c>
-      <c r="O73">
-        <v>0.78</v>
-      </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>3034</v>
+        <v>3032</v>
       </c>
     </row>
   </sheetData>
